--- a/Results/Calculation/lda2vec-partial-ner-w2v.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-w2v.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="G2">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="H2">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I2">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>0.67</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="G4">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="H4">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,13 +525,13 @@
         <v>278</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>52</v>
       </c>
       <c r="F5">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="G5">
         <v>0.6</v>
